--- a/src/test/resources/TestData/PythonCode.xlsx
+++ b/src/test/resources/TestData/PythonCode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="20460" windowHeight="11220"/>
   </bookViews>
   <sheets>
     <sheet name="pythoncode" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1:P17"/>
 </workbook>
 </file>
 

--- a/src/test/resources/TestData/PythonCode.xlsx
+++ b/src/test/resources/TestData/PythonCode.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="20460" windowHeight="11220"/>
+    <workbookView xWindow="0" yWindow="1155" windowWidth="20460" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="pythoncode" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="registerData" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:P17"/>
+  <oleSize ref="A1:P21"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>Pcode</t>
   </si>
@@ -68,12 +68,63 @@
   <si>
     <t>error</t>
   </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>confirmpassword</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>sdet158</t>
+  </si>
+  <si>
+    <t>Bughunters@2023</t>
+  </si>
+  <si>
+    <t>password_mismatch:The two password fields didn’t match.</t>
+  </si>
+  <si>
+    <t>Please fill out this field</t>
+  </si>
+  <si>
+    <t>New Account Created. You are logged in as asdfgh</t>
+  </si>
+  <si>
+    <t>asxcvb123</t>
+  </si>
+  <si>
+    <t>greenHorn@2025</t>
+  </si>
+  <si>
+    <t>scenarioType</t>
+  </si>
+  <si>
+    <t>usernameBlank</t>
+  </si>
+  <si>
+    <t>pwdBlank</t>
+  </si>
+  <si>
+    <t>confirmPwdBlank</t>
+  </si>
+  <si>
+    <t>invalidConfirmPwd</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,16 +132,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF004085"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCE5FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -98,17 +186,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -468,13 +620,143 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="6" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="45.75" thickBot="1">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="30.75" thickBot="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="30.75" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="30.75" thickBot="1">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="46.5" thickBot="1">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/TestData/PythonCode.xlsx
+++ b/src/test/resources/TestData/PythonCode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1155" windowWidth="20460" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="1155" windowWidth="20460" windowHeight="12585" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="pythoncode" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:P21"/>
+  <oleSize ref="A1:U40"/>
 </workbook>
 </file>
 
@@ -555,7 +555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -764,7 +764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
